--- a/RiskAssessmentForm.xlsx
+++ b/RiskAssessmentForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Name of chemical</t>
   </si>
@@ -94,23 +94,189 @@
     </r>
   </si>
   <si>
-    <t>Distilled Water(L)</t>
-  </si>
-  <si>
-    <t>Copper Sulfate(aq)</t>
-  </si>
-  <si>
-    <t>Sulfuric Acid(aq)</t>
-  </si>
-  <si>
-    <t>Zinc(s)</t>
+    <r>
+      <t xml:space="preserve">Zinc </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sulfuric Acid </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>(aq)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copper Sulfate </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>(aq)</t>
+    </r>
+  </si>
+  <si>
+    <t>Low Hazard</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Place in normal refuse.</t>
+  </si>
+  <si>
+    <t>CLEAPSS Hazcards</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hydrated Copper Sulfate </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+  </si>
+  <si>
+    <t>Harmful. Dangerous for the Environment.</t>
+  </si>
+  <si>
+    <t>Dissolve 64 g in 1 litre of water before pouring the solution down a foulwater
+drain. This disposal procedure should be kept to a minimum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmful if swallowed. Irritating to eyes and skin. </t>
+  </si>
+  <si>
+    <t>Do not put near mouth. Use gloves and goggles. Keep away from water unless intended.</t>
+  </si>
+  <si>
+    <t>Crystals may be used for solutions. Dilute to less than 0.4 mol dm-3 or dissolve 100 g in 1 litre of water before
+pouring the solution down a foul-water drain. This disposal procedure
+should be kept to a minimum.</t>
+  </si>
+  <si>
+    <t>Corrosive.</t>
+  </si>
+  <si>
+    <t>Causes serious burns.</t>
+  </si>
+  <si>
+    <t>Remove contaminated clothing and quickly wipe as much liquid as possible off the skin with a dry
+cloth before drenching the area with a large excess of water. If a large area is affected or blistering
+occurs, seek medical attention.</t>
+  </si>
+  <si>
+    <t>Seek medical attention. Wash contaminated area.</t>
+  </si>
+  <si>
+    <r>
+      <t>Label: Corrosive if above 1.5moldm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>. Label: Irritant, if stronger than 0.5 moldm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>. Wear gloves and goggles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Label: Harmful if above 1 moldm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">-3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>. Do not put near mouth. Use gloves and goggles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Add slowly no more than 10 cm3 of concentrated
+sulfuric(VI) acid to 1 litre of 1 mol dm-3 sodium carbonate
+solution (containing indicator) which should be constantly
+stirred. Let the mixture cool (or add ice), before adding
+more acid. Pour the solution down a foul-water drain.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +292,20 @@
       <family val="4"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Comic Sans MS"/>
@@ -225,10 +405,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,25 +715,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:J30"/>
+  <dimension ref="D5:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:10" ht="234.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="98.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,36 +756,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="4:10" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -615,35 +807,47 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="4:10" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -652,36 +856,48 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="4:10" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -690,36 +906,48 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="4:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -728,109 +956,23 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
+  <mergeCells count="28">
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="J15:J18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J19:J22"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
@@ -838,15 +980,15 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
